--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_33.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_33.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1111"/>
+  <dimension ref="A1:N1112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.270252227783203</v>
+        <v>0.001012086868286133</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03136777877807617</v>
+        <v>0.0007338523864746094</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03931283950805664</v>
+        <v>0.04856491088867188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 1), (5, 0), (4, 1), (5, 3), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (3, 3), (2, 2), (2, 3), (1, 4), (2, 0), (2, 5), (0, 4), (3, 5), (3, 0), (4, 2), (4, 3), (5, 1), (5, 2), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 0], [3, 1], [5, 0], [4, 1], [5, 3], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [3, 3], [2, 2], [2, 3], [1, 4], [2, 0], [2, 5], [0, 4], [3, 5], [3, 0], [4, 2], [4, 3], [5, 1], [5, 2], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 4), (5, 0), (4, 1), (5, 3), (1, 5), (4, 4), (0, 5), (2, 4), (0, 4), (2, 3), (4, 2), (3, 3), (4, 3), (0, 0), (1, 4), (5, 1), (2, 5), (3, 5), (4, 5), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 0], [3, 4], [5, 0], [4, 1], [5, 3], [1, 5], [4, 4], [0, 5], [2, 4], [0, 4], [2, 3], [4, 2], [3, 3], [4, 3], [0, 0], [1, 4], [5, 1], [2, 5], [3, 5], [4, 5], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 4), (5, 0), (4, 1), (5, 3), (3, 1), (4, 4), (3, 2), (2, 5), (3, 3), (4, 3), (4, 2), (5, 1), (4, 5), (5, 4), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4)]</t>
+          <t>[[4, 0], [3, 4], [5, 0], [4, 1], [5, 3], [3, 1], [4, 4], [3, 2], [2, 5], [3, 3], [4, 3], [4, 2], [5, 1], [4, 5], [5, 4], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 1), (5, 0), (4, 1), (5, 3), (3, 2), (4, 4), (3, 0), (4, 5), (4, 2), (4, 3), (5, 1), (3, 3), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5)]</t>
+          <t>[[4, 0], [3, 1], [5, 0], [4, 1], [5, 3], [3, 2], [4, 4], [3, 0], [4, 5], [4, 2], [4, 3], [5, 1], [3, 3], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5]]</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 1), (5, 0), (3, 0), (5, 3), (4, 2), (4, 5), (5, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3)]</t>
+          <t>[[4, 0], [3, 1], [5, 0], [3, 0], [5, 3], [4, 2], [4, 5], [5, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[(5, 0), (5, 2), (5, 1), (4, 5), (4, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0)]</t>
+          <t>[[5, 0], [5, 2], [5, 1], [4, 5], [4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>[(4, 0), (3, 1), (5, 0), (4, 1), (5, 3), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (5, 2), (5, 1), (3, 0)]</t>
+          <t>[[4, 0], [3, 1], [5, 0], [4, 1], [5, 3], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [5, 2], [5, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>[(5, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (4, 0), (5, 1), (5, 2), (4, 5)]</t>
+          <t>[[5, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [4, 0], [5, 1], [5, 2], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -6304,7 +6304,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (4, 0), (5, 0), (5, 1), (5, 2), (4, 5)]</t>
+          <t>[[4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [4, 0], [5, 0], [5, 1], [5, 2], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (3, 2), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (4, 5)]</t>
+          <t>[[4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [3, 2], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 0), (3, 1), (4, 3), (4, 2), (3, 0), (3, 2), (3, 4), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (4, 5)]</t>
+          <t>[[2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 0], [3, 1], [4, 3], [4, 2], [3, 0], [3, 2], [3, 4], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>[(5, 3), (5, 2), (4, 1), (3, 1), (2, 2), (1, 2), (0, 1), (0, 2), (1, 1), (2, 1), (3, 2), (4, 2), (5, 1), (4, 3), (5, 4), (3, 3), (0, 4), (1, 3), (3, 4), (2, 3), (4, 0), (2, 5), (1, 4), (0, 0), (3, 0), (2, 4), (3, 5), (5, 0), (1, 0), (2, 0), (0, 3), (4, 4), (4, 5)]</t>
+          <t>[[5, 3], [5, 2], [4, 1], [3, 1], [2, 2], [1, 2], [0, 1], [0, 2], [1, 1], [2, 1], [3, 2], [4, 2], [5, 1], [4, 3], [5, 4], [3, 3], [0, 4], [1, 3], [3, 4], [2, 3], [4, 0], [2, 5], [1, 4], [0, 0], [3, 0], [2, 4], [3, 5], [5, 0], [1, 0], [2, 0], [0, 3], [4, 4], [4, 5]]</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (2, 0), (2, 3), (1, 5), (0, 4), (4, 3), (5, 4), (3, 3), (3, 4), (3, 1), (3, 2), (3, 5), (0, 5), (2, 5), (1, 4), (0, 0), (3, 0), (2, 4), (4, 4), (5, 0), (4, 0), (4, 1), (4, 2), (4, 5), (5, 5)]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [1, 5], [0, 4], [4, 3], [5, 4], [3, 3], [3, 4], [3, 1], [3, 2], [3, 5], [0, 5], [2, 5], [1, 4], [0, 0], [3, 0], [2, 4], [4, 4], [5, 0], [4, 0], [4, 1], [4, 2], [4, 5], [5, 5]]</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (1, 5), (0, 5), (3, 0), (3, 1), (2, 3), (2, 5), (3, 3), (4, 3), (5, 4), (3, 2), (3, 4), (4, 0), (4, 1), (3, 5), (4, 5), (4, 4), (4, 2), (5, 0), (5, 1), (1, 4), (2, 4), (2, 1), (1, 3), (2, 0), (0, 3), (0, 4), (2, 2)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 5], [0, 5], [3, 0], [3, 1], [2, 3], [2, 5], [3, 3], [4, 3], [5, 4], [3, 2], [3, 4], [4, 0], [4, 1], [3, 5], [4, 5], [4, 4], [4, 2], [5, 0], [5, 1], [1, 4], [2, 4], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -10147,110 +10147,120 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1107" t="n">
-        <v>163</v>
+        <v>0.9896857291723067</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1108" t="n">
-        <v>920</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1109" t="n">
-        <v>14</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1110" t="n">
-        <v>3.434847831726074</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1111" t="n">
+        <v>0.170792818069458</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1111" t="inlineStr">
+      <c r="B1112" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1111" t="inlineStr">
+      <c r="C1112" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1111" t="inlineStr">
+      <c r="D1112" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1111" t="inlineStr">
+      <c r="E1112" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1111" t="inlineStr">
+      <c r="F1112" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1111" t="inlineStr">
+      <c r="G1112" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1111" t="inlineStr">
+      <c r="H1112" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1111" t="inlineStr">
+      <c r="I1112" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1111" t="inlineStr">
+      <c r="J1112" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1111" t="inlineStr">
+      <c r="K1112" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1111" t="inlineStr">
+      <c r="L1112" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1111" t="inlineStr">
+      <c r="M1112" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1111" t="inlineStr">
+      <c r="N1112" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
